--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC799DB9-EE8A-4855-A02A-353443E1AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC33DC3-A624-47C1-8435-1EAB6A722575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"images\Question_6_Options\CallOK.JPG"</t>
+    <t>"images/Question_6_Options/CallOK.JPG"</t>
   </si>
 </sst>
 </file>
@@ -399,11 +399,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,42 +511,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -958,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1095,7 +1103,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>101</v>
       </c>
     </row>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC33DC3-A624-47C1-8435-1EAB6A722575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA8C04-5EF8-418F-B943-C0ADC2B79996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"images/Question_6_Options/CallOK.JPG"</t>
+    <t>"images//Question_6_Options//CallOK.JPG"</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA8C04-5EF8-418F-B943-C0ADC2B79996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0938CA-23B7-4C41-B094-8A2303DF8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"images//Question_6_Options//CallOK.JPG"</t>
+    <t>"images/Question_6_Options/CallOK.JPG"</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0938CA-23B7-4C41-B094-8A2303DF8FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D992A-BC29-4656-865B-968D607572D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"images/Question_6_Options/CallOK.JPG"</t>
+    <t>"CallOK.JPG"</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D992A-BC29-4656-865B-968D607572D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB25CC4-C339-4D0B-BCE6-6726A508BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"CallOK.JPG"</t>
+    <t>images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1099,7 +1099,7 @@
       <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="15"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB25CC4-C339-4D0B-BCE6-6726A508BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B2D5C-8701-4C3A-ACEB-3AA00A399565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG</t>
+    <t>StreamlitApplication/images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B2D5C-8701-4C3A-ACEB-3AA00A399565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743154C2-E903-40A1-88C1-08D371958A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>StreamlitApplication/images/Question_6_Options/CallOK.JPG</t>
+    <t>./images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743154C2-E903-40A1-88C1-08D371958A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447272E0-0EB8-4103-8837-7426637B6E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>./images/Question_6_Options/CallOK.JPG</t>
+    <t>/images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447272E0-0EB8-4103-8837-7426637B6E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE654FB-3CBF-4176-8A28-9EB005793807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>/images/Question_6_Options/CallOK.JPG</t>
+    <t>https://github.com/julien-mcx/StreamlitApplication/blob/main/images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1103,7 +1103,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1127,10 +1127,11 @@
   <hyperlinks>
     <hyperlink ref="B12" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B11" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{7BD8BF2D-1CEF-471D-9CB3-703484E929CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE654FB-3CBF-4176-8A28-9EB005793807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8CA04-0F0A-4E00-9278-5DC867C66A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>https://github.com/julien-mcx/StreamlitApplication/blob/main/images/Question_6_Options/CallOK.JPG</t>
+    <t>https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1127,7 +1127,7 @@
   <hyperlinks>
     <hyperlink ref="B12" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B11" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{7BD8BF2D-1CEF-471D-9CB3-703484E929CD}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{DC32DC29-7C17-4F84-B38D-352D1D5895EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8CA04-0F0A-4E00-9278-5DC867C66A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC167FA-CD7C-4F20-B3F0-C567620E2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG</t>
+    <t>images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1127,7 +1127,7 @@
   <hyperlinks>
     <hyperlink ref="B12" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B11" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{DC32DC29-7C17-4F84-B38D-352D1D5895EE}"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{DC32DC29-7C17-4F84-B38D-352D1D5895EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC167FA-CD7C-4F20-B3F0-C567620E2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FF15B-88F9-4488-9BAE-4768ECA2927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG</t>
+    <t>"images/Question_6_Options/CallOK.JPG"</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FF15B-88F9-4488-9BAE-4768ECA2927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7EDCC-9767-4B51-9156-6C78CCA3EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>"images/Question_6_Options/CallOK.JPG"</t>
+    <t>""images/Question_6_Options/CallOK.JPG""</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7EDCC-9767-4B51-9156-6C78CCA3EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257ED3A-E476-4F82-9FC6-F578EDF2A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>""images/Question_6_Options/CallOK.JPG""</t>
+    <t>images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257ED3A-E476-4F82-9FC6-F578EDF2A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C19E12-9C35-4F41-A9D2-2198599D0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG</t>
+    <t>["images/Question_6_Options/CallOK.JPG", "images/Question_6_Options/Put.JPG"]</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C19E12-9C35-4F41-A9D2-2198599D0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1F653-F57A-4327-890D-E8F3DD265F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>["images/Question_6_Options/CallOK.JPG", "images/Question_6_Options/Put.JPG"]</t>
+    <t>['images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1F653-F57A-4327-890D-E8F3DD265F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED762A-EEF5-4DA7-8E2B-75A3F255FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>['images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG']</t>
+    <t>images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG'</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -550,6 +550,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,7 +967,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1103,7 +1104,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="20" t="s">
         <v>101</v>
       </c>
     </row>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED762A-EEF5-4DA7-8E2B-75A3F255FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15973EFF-E3C1-455D-AE03-04DB79CF84A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG'</t>
+    <t>['images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG']</t>
   </si>
 </sst>
 </file>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15973EFF-E3C1-455D-AE03-04DB79CF84A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89158E8-6972-44EB-A7C9-F50AF86A330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>['images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG']</t>
+    <t>images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG'</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89158E8-6972-44EB-A7C9-F50AF86A330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68037BA3-F9FF-4482-A4DD-1E9ECE9A0B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68037BA3-F9FF-4482-A4DD-1E9ECE9A0B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEC4156-7BE5-4EF5-878B-C3EF08FF1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,7 +966,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEC4156-7BE5-4EF5-878B-C3EF08FF1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D330E9-872D-4BF3-8235-2DEDC8DAAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>"images/Question_6_Options/Put.JPG"</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG', 'images/Question_6_Options/Put.JPG'</t>
+    <t>images/Question_6_Options/CallOK.JPG, images/Question_6_Options/Put.JPG</t>
   </si>
 </sst>
 </file>

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D330E9-872D-4BF3-8235-2DEDC8DAAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687AF73-B954-4F82-8224-D47AA1F28C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -357,9 +357,6 @@
     <t xml:space="preserve">Quelle est la différence entre une option américaine et une option européenne ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Donnez des exemples de trois options sur indices qui se négocient sur le CBOE ? </t>
-  </si>
-  <si>
     <t>La principale différence entre une option américaine et une option européenne est que l'option américaine peut être exercée à tout moment avant la date d'expiration tandis que l'option européenne ne peut être exercée qu'à la date d'expiration.</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
 La différence entre une option américaine et une option européenne est que l'option américaine a un prix d'exercice fixe tandis que l'option européenne a un prix d'exercice qui fluctue en fonction du prix du marché.</t>
   </si>
   <si>
-    <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour un call l'évolution du profit net en fonction du prix du sous-jacent : </t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -386,10 +380,13 @@
     <t>\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\Put.JPG</t>
   </si>
   <si>
-    <t>"images/Question_6_Options/Put.JPG"</t>
-  </si>
-  <si>
     <t>images/Question_6_Options/CallOK.JPG, images/Question_6_Options/Put.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour un long call l'évolution du profit net en fonction du prix du sous-jacent : </t>
+  </si>
+  <si>
+    <t>images/Question_6_Options/CallOK.JPG</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,12 +542,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,8 +962,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -996,8 +992,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>98</v>
+      <c r="G1" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="87">
@@ -1011,13 +1007,13 @@
         <v>90</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5">
@@ -1025,8 +1021,8 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>91</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1095,33 +1091,35 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="20" t="s">
-        <v>101</v>
+      <c r="F7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="95" customHeight="1"/>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>99</v>
+      <c r="B11" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>99</v>
+      <c r="B12" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1140,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1173,8 +1171,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>98</v>
+      <c r="G1" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
@@ -2326,7 +2324,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2359,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2593,8 +2591,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2622,8 +2620,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>98</v>
+      <c r="G1" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5">

--- a/QuestionsFinancedeMarche11.xlsx
+++ b/QuestionsFinancedeMarche11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687AF73-B954-4F82-8224-D47AA1F28C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBE6049-657D-4653-9131-6353D47B1271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>Description</t>
   </si>
@@ -383,10 +383,16 @@
     <t>images/Question_6_Options/CallOK.JPG, images/Question_6_Options/Put.JPG</t>
   </si>
   <si>
-    <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour un long call l'évolution du profit net en fonction du prix du sous-jacent : </t>
-  </si>
-  <si>
     <t>images/Question_6_Options/CallOK.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour un achat de call l'évolution du profit net en fonction du prix du sous-jacent : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour une vente de call l'évolution du profit net en fonction du prix du sous-jacent : </t>
+  </si>
+  <si>
+    <t>images/Question_6_Options/Put.JPG</t>
   </si>
 </sst>
 </file>
@@ -396,11 +402,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +495,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -508,44 +526,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -571,13 +590,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>317501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1005792</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>857251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -621,13 +640,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4641850</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7299325</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>7302500</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -671,14 +690,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5296146</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6425</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -960,15 +979,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
     <col min="3" max="3" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="111.26953125" customWidth="1"/>
   </cols>
@@ -1000,8 +1020,9 @@
       <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="str">
+        <f>"Question_"&amp;ROW(A2)-1</f>
+        <v>Question_1</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>90</v>
@@ -1017,120 +1038,184 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
+      <c r="B3" s="1" t="str">
+        <f>"Question_"&amp;ROW(A3)-1</f>
+        <v>Question_2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
+      <c r="B4" s="1" t="str">
+        <f t="shared" ref="B4:B9" si="0">"Question_"&amp;ROW(A4)-1</f>
+        <v>Question_3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Question_4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Question_5</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Question_6</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="95" customHeight="1"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Question_7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Question_8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="str">
+        <f>"Question_"&amp;ROW(A10)-1</f>
+        <v>Question_9</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="95" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="B11" s="15" t="s">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="B14" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="B12" s="15" t="s">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="B15" s="15" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{DC32DC29-7C17-4F84-B38D-352D1D5895EE}"/>
+    <hyperlink ref="B15" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{F8E2D493-C495-48FE-99D8-E8E5CACCDB58}"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{2FC3643B-D6BF-4D39-9083-E9FCE7B51331}"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{3523E2F3-08BC-4F4D-9D64-78E815FE189A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2727,9 +2812,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2739,7 +2826,7 @@
     <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -2750,7 +2837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="e">
         <f ca="1">EV(B2)</f>
         <v>#NAME?</v>
@@ -2760,7 +2847,7 @@
         <v>Question_3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2769,19 +2856,32 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
